--- a/Petrale Life History_2018.01.08.xlsx
+++ b/Petrale Life History_2018.01.08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e98a57e074663f34/Documents/GitHub/Petrale-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F074398C587E46CA3B2EFCEBB7FB1A26A5EF4D84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{293363F4-A52B-42EB-96CC-D7633FEE9954}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F074398C587E46CA3B2EFCEBB7FB1A26A5EF4D84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429F9424-D34E-468D-8EE6-147706393CD3}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revised Hypotheses" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="Z12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AA12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="243">
   <si>
     <t>Biology / Life Stage</t>
   </si>
@@ -790,6 +790,21 @@
     <t>50-150 m
 AND
 150-500 m</t>
+  </si>
+  <si>
+    <t>Tpre.a</t>
+  </si>
+  <si>
+    <t>Tpre.b</t>
+  </si>
+  <si>
+    <t>MLDegg</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>DDpre</t>
   </si>
 </sst>
 </file>
@@ -1378,6 +1393,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1410,34 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1525,6 +1540,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1790,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AT66"/>
+  <dimension ref="B1:AU66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1806,109 +1825,110 @@
     <col min="6" max="7" width="15.453125" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" style="8" customWidth="1"/>
     <col min="9" max="9" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.36328125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="39.453125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="30.36328125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="36.81640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="5.6328125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="7.81640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6328125" style="8" customWidth="1"/>
-    <col min="28" max="28" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.81640625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="8.453125" style="8" customWidth="1"/>
-    <col min="34" max="35" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="28.36328125" style="8"/>
+    <col min="10" max="10" width="16.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="69.36328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="39.453125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="30.36328125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="36.81640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.6328125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="4.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.81640625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="8.453125" style="8" customWidth="1"/>
+    <col min="35" max="36" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="4.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="28.36328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="84" t="s">
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.35">
-      <c r="B5" s="85" t="s">
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="2:47" x14ac:dyDescent="0.35">
+      <c r="B5" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="J5" s="8" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="K5" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="M5" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="2:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="2:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="2:46" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="99"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="101"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:47" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
         <v>156</v>
       </c>
@@ -1933,26 +1953,26 @@
       <c r="I7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="M7" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="O7" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -1982,8 +2002,9 @@
       <c r="AR7" s="10"/>
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
-    </row>
-    <row r="8" spans="2:46" ht="42" x14ac:dyDescent="0.35">
+      <c r="AU7" s="10"/>
+    </row>
+    <row r="8" spans="2:47" ht="42" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>166</v>
       </c>
@@ -2004,36 +2025,37 @@
       <c r="I8" s="59">
         <v>1</v>
       </c>
-      <c r="J8" s="60" t="s">
+      <c r="J8" s="59"/>
+      <c r="K8" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="L8" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="M8" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="61" t="str">
+      <c r="N8" s="61" t="str">
         <f>F8</f>
         <v>50-200 m</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="O8" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="P8" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="11"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
-      <c r="AH8" s="12"/>
-    </row>
-    <row r="9" spans="2:46" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="X8" s="12"/>
+      <c r="AI8" s="12"/>
+    </row>
+    <row r="9" spans="2:47" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2047,34 +2069,37 @@
         <f>I8+1</f>
         <v>2</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="M9" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M9" s="24" t="str">
+      <c r="N9" s="24" t="str">
         <f>F8</f>
         <v>50-200 m</v>
       </c>
-      <c r="N9" s="76" t="s">
+      <c r="O9" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="11"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="AH9" s="12"/>
-    </row>
-    <row r="10" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="X9" s="12"/>
+      <c r="AI9" s="12"/>
+    </row>
+    <row r="10" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
         <v>32</v>
       </c>
@@ -2096,34 +2121,37 @@
         <f t="shared" ref="I10:I30" si="0">I9+1</f>
         <v>3</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="L10" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="74" t="s">
+      <c r="M10" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M10" s="35" t="str">
-        <f>IF(ISBLANK(F10),M9,F10)</f>
+      <c r="N10" s="35" t="str">
+        <f>IF(ISBLANK(F10),N9,F10)</f>
         <v>250-500 m</v>
       </c>
-      <c r="N10" s="77" t="s">
+      <c r="O10" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="O10" s="36"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="11"/>
-      <c r="V10" s="12"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="11"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
-      <c r="AH10" s="12"/>
-    </row>
-    <row r="11" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AA10" s="12"/>
+      <c r="AI10" s="12"/>
+    </row>
+    <row r="11" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2137,80 +2165,86 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="M11" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="38" t="str">
-        <f>IF(ISBLANK(F11),M10,F11)</f>
+      <c r="N11" s="38" t="str">
+        <f>IF(ISBLANK(F11),N10,F11)</f>
         <v>250-500 m</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="O11" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="11"/>
-      <c r="V11" s="12"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="11"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
-      <c r="AH11" s="12"/>
-    </row>
-    <row r="12" spans="2:46" s="103" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="95" t="s">
+      <c r="AA11" s="12"/>
+      <c r="AI11" s="12"/>
+    </row>
+    <row r="12" spans="2:47" s="92" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="98">
+      <c r="I12" s="87">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="99" t="s">
+      <c r="J12" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="L12" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="L12" s="100" t="s">
+      <c r="M12" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="97" t="str">
-        <f>IF(ISBLANK(F12),M11,F12)</f>
+      <c r="N12" s="86" t="str">
+        <f>IF(ISBLANK(F12),N11,F12)</f>
         <v>Surface, above MLD</v>
       </c>
-      <c r="N12" s="101" t="s">
+      <c r="O12" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="92" t="s">
+      <c r="P12" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="P12" s="102"/>
-      <c r="R12" s="104"/>
-    </row>
-    <row r="13" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q12" s="91"/>
+      <c r="S12" s="93"/>
+    </row>
+    <row r="13" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -2221,37 +2255,39 @@
         <v>179</v>
       </c>
       <c r="I13" s="22">
-        <f>I14+1</f>
-        <v>7</v>
-      </c>
-      <c r="J13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="L13" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="M13" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="24" t="str">
-        <f>IF(ISBLANK(F12),M11,F12)</f>
+      <c r="N13" s="24" t="str">
+        <f>IF(ISBLANK(F12),N11,F12)</f>
         <v>Surface, above MLD</v>
       </c>
-      <c r="N13" s="76" t="s">
+      <c r="O13" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="93"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="11"/>
-      <c r="V13" s="12"/>
-      <c r="X13" s="12"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="11"/>
+      <c r="W13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AH13" s="12"/>
-    </row>
-    <row r="14" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AB13" s="12"/>
+      <c r="AI13" s="12"/>
+    </row>
+    <row r="14" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -2262,37 +2298,39 @@
         <v>179</v>
       </c>
       <c r="I14" s="22">
-        <f>I12+1</f>
-        <v>6</v>
-      </c>
-      <c r="J14" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="M14" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M14" s="24" t="str">
-        <f>IF(ISBLANK(F13),M12,F13)</f>
+      <c r="N14" s="24" t="str">
+        <f>IF(ISBLANK(F13),N12,F13)</f>
         <v>Surface, above MLD</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="O14" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="O14" s="93"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="11"/>
-      <c r="V14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="11"/>
+      <c r="W14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AH14" s="12"/>
-    </row>
-    <row r="15" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AB14" s="12"/>
+      <c r="AI14" s="12"/>
+    </row>
+    <row r="15" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2303,37 +2341,37 @@
         <v>182</v>
       </c>
       <c r="I15" s="64">
-        <f>I13+1</f>
         <v>8</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="M15" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M15" s="38" t="str">
-        <f t="shared" ref="M15:M22" si="1">IF(ISBLANK(F15),M14,F15)</f>
+      <c r="N15" s="38" t="str">
+        <f t="shared" ref="N15:N22" si="1">IF(ISBLANK(F15),N14,F15)</f>
         <v>Surface, above MLD</v>
       </c>
-      <c r="N15" s="73" t="s">
+      <c r="O15" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="94"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="11"/>
-      <c r="V15" s="12"/>
-      <c r="X15" s="12"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="11"/>
+      <c r="W15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
-      <c r="AH15" s="12"/>
-    </row>
-    <row r="16" spans="2:46" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AB15" s="12"/>
+      <c r="AI15" s="12"/>
+    </row>
+    <row r="16" spans="2:47" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>192</v>
       </c>
@@ -2357,36 +2395,37 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="L16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="M16" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="35" t="str">
+      <c r="N16" s="35" t="str">
         <f t="shared" si="1"/>
         <v>400 m to MLD</v>
       </c>
-      <c r="N16" s="76" t="s">
+      <c r="O16" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="P16" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="11"/>
-      <c r="V16" s="12"/>
-      <c r="Y16" s="12"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="11"/>
+      <c r="W16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-      <c r="AH16" s="12"/>
-    </row>
-    <row r="17" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC16" s="12"/>
+      <c r="AI16" s="12"/>
+    </row>
+    <row r="17" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -2400,36 +2439,37 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="L17" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="M17" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M17" s="24" t="str">
+      <c r="N17" s="24" t="str">
         <f t="shared" si="1"/>
         <v>400 m to MLD</v>
       </c>
-      <c r="N17" s="76" t="s">
+      <c r="O17" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="P17" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="11"/>
-      <c r="V17" s="12"/>
-      <c r="Y17" s="12"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="11"/>
+      <c r="W17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AH17" s="12"/>
-    </row>
-    <row r="18" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AC17" s="12"/>
+      <c r="AI17" s="12"/>
+    </row>
+    <row r="18" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2443,34 +2483,35 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="64"/>
+      <c r="K18" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="L18" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="L18" s="72" t="s">
+      <c r="M18" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="38" t="str">
+      <c r="N18" s="38" t="str">
         <f t="shared" si="1"/>
         <v>400 m to MLD</v>
       </c>
-      <c r="N18" s="73" t="s">
+      <c r="O18" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="11"/>
-      <c r="V18" s="12"/>
-      <c r="Y18" s="12"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="11"/>
+      <c r="W18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AH18" s="12"/>
-    </row>
-    <row r="19" spans="2:46" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AC18" s="12"/>
+      <c r="AI18" s="12"/>
+    </row>
+    <row r="19" spans="2:47" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>193</v>
       </c>
@@ -2494,36 +2535,37 @@
         <f>I18+1</f>
         <v>12</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="65"/>
+      <c r="K19" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="L19" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L19" s="74" t="s">
+      <c r="M19" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M19" s="35" t="str">
+      <c r="N19" s="35" t="str">
         <f t="shared" si="1"/>
         <v>0-50 m</v>
       </c>
-      <c r="N19" s="77" t="s">
+      <c r="O19" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="O19" s="67"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="11"/>
-      <c r="V19" s="12"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="12"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="11"/>
+      <c r="W19" s="12"/>
+      <c r="Y19" s="13"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AH19" s="12"/>
-    </row>
-    <row r="20" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD19" s="12"/>
+      <c r="AI19" s="12"/>
+    </row>
+    <row r="20" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -2537,37 +2579,38 @@
         <f>I19+1</f>
         <v>13</v>
       </c>
-      <c r="J20" s="66" t="str">
+      <c r="J20" s="22"/>
+      <c r="K20" s="66" t="str">
         <f>"Transport to settlement habitat affects recrutiment (not distinuishable from "&amp;I19&amp;")"</f>
         <v>Transport to settlement habitat affects recrutiment (not distinuishable from 12)</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="L20" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="M20" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M20" s="24" t="str">
+      <c r="N20" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0-50 m</v>
       </c>
-      <c r="N20" s="76" t="s">
+      <c r="O20" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="11"/>
-      <c r="V20" s="12"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="12"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="11"/>
+      <c r="W20" s="12"/>
+      <c r="Y20" s="13"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AH20" s="12"/>
-    </row>
-    <row r="21" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD20" s="12"/>
+      <c r="AI20" s="12"/>
+    </row>
+    <row r="21" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -2581,36 +2624,37 @@
         <f>I20+1</f>
         <v>14</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="L21" s="75" t="s">
+      <c r="M21" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="24" t="str">
+      <c r="N21" s="24" t="str">
         <f t="shared" si="1"/>
         <v>0-50 m</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="O21" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="O21" s="23"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="11"/>
-      <c r="V21" s="12"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="12"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="11"/>
+      <c r="W21" s="12"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
-      <c r="AH21" s="12"/>
-    </row>
-    <row r="22" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD21" s="12"/>
+      <c r="AI21" s="12"/>
+    </row>
+    <row r="22" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -2624,36 +2668,37 @@
         <f>I21+1</f>
         <v>15</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="64"/>
+      <c r="K22" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="L22" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="72" t="s">
+      <c r="M22" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M22" s="38" t="str">
+      <c r="N22" s="38" t="str">
         <f t="shared" si="1"/>
         <v>0-50 m</v>
       </c>
-      <c r="N22" s="73" t="s">
+      <c r="O22" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="11"/>
-      <c r="V22" s="12"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="12"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="11"/>
+      <c r="W22" s="12"/>
+      <c r="Y22" s="13"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
-      <c r="AH22" s="12"/>
-    </row>
-    <row r="23" spans="2:46" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="AD22" s="12"/>
+      <c r="AI22" s="12"/>
+    </row>
+    <row r="23" spans="2:47" s="43" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B23" s="44" t="s">
         <v>188</v>
       </c>
@@ -2676,35 +2721,36 @@
         <f>I22+1</f>
         <v>16</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="65"/>
+      <c r="K23" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="L23" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L23" s="74" t="s">
+      <c r="M23" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="M23" s="35" t="str">
+      <c r="N23" s="35" t="str">
         <f>IF(ISBLANK(F23),#REF!,F23)</f>
         <v>0 - 150 m</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="O23" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="O23" s="36"/>
       <c r="P23" s="36"/>
-      <c r="R23" s="47"/>
-      <c r="V23" s="48"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="48"/>
+      <c r="Q23" s="36"/>
+      <c r="S23" s="47"/>
+      <c r="W23" s="48"/>
+      <c r="Y23" s="49"/>
       <c r="Z23" s="48"/>
       <c r="AA23" s="48"/>
       <c r="AB23" s="48"/>
       <c r="AC23" s="48"/>
-      <c r="AH23" s="48"/>
-    </row>
-    <row r="24" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD23" s="48"/>
+      <c r="AI23" s="48"/>
+    </row>
+    <row r="24" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="50"/>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
@@ -2717,36 +2763,37 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="L24" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L24" s="75" t="s">
+      <c r="M24" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M24" s="24" t="str">
-        <f t="shared" ref="M24:M29" si="2">IF(ISBLANK(F24),M23,F24)</f>
+      <c r="N24" s="24" t="str">
+        <f t="shared" ref="N24:N29" si="2">IF(ISBLANK(F24),N23,F24)</f>
         <v>0 - 150 m</v>
       </c>
-      <c r="N24" s="76" t="s">
+      <c r="O24" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O24" s="23"/>
       <c r="P24" s="23"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="11"/>
-      <c r="V24" s="12"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="12"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="11"/>
+      <c r="W24" s="12"/>
+      <c r="Y24" s="13"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
-      <c r="AH24" s="12"/>
-    </row>
-    <row r="25" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD24" s="12"/>
+      <c r="AI24" s="12"/>
+    </row>
+    <row r="25" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="50"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
@@ -2759,36 +2806,37 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="L25" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="M25" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="24" t="str">
+      <c r="N25" s="24" t="str">
         <f t="shared" si="2"/>
         <v>0 - 150 m</v>
       </c>
-      <c r="N25" s="76" t="s">
+      <c r="O25" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="O25" s="23"/>
       <c r="P25" s="23"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="11"/>
-      <c r="V25" s="12"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="12"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="11"/>
+      <c r="W25" s="12"/>
+      <c r="Y25" s="13"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AH25" s="12"/>
-    </row>
-    <row r="26" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AD25" s="12"/>
+      <c r="AI25" s="12"/>
+    </row>
+    <row r="26" spans="2:47" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2802,29 +2850,29 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="64"/>
+      <c r="K26" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="L26" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="72" t="s">
+      <c r="M26" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="38" t="str">
+      <c r="N26" s="38" t="str">
         <f t="shared" si="2"/>
         <v>0 - 150 m</v>
       </c>
-      <c r="N26" s="73" t="s">
+      <c r="O26" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="11"/>
-      <c r="V26" s="12"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="12"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="11"/>
+      <c r="W26" s="12"/>
+      <c r="AB26" s="13"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
@@ -2843,8 +2891,9 @@
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" s="12"/>
-    </row>
-    <row r="27" spans="2:46" ht="42" x14ac:dyDescent="0.35">
+      <c r="AU26" s="12"/>
+    </row>
+    <row r="27" spans="2:47" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="39" t="s">
         <v>189</v>
       </c>
@@ -2866,33 +2915,33 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="66" t="s">
+      <c r="L27" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="L27" s="75" t="s">
+      <c r="M27" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="24" t="str">
+      <c r="N27" s="24" t="str">
         <f t="shared" si="2"/>
         <v>50-150 m
 AND
 150-500 m</v>
       </c>
-      <c r="N27" s="76" t="s">
+      <c r="O27" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O27" s="92" t="s">
+      <c r="P27" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="11"/>
-      <c r="V27" s="12"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="12"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="11"/>
+      <c r="W27" s="12"/>
+      <c r="AB27" s="13"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
@@ -2911,8 +2960,9 @@
       <c r="AR27" s="12"/>
       <c r="AS27" s="12"/>
       <c r="AT27" s="12"/>
-    </row>
-    <row r="28" spans="2:46" ht="29" x14ac:dyDescent="0.35">
+      <c r="AU27" s="12"/>
+    </row>
+    <row r="28" spans="2:47" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -2926,31 +2976,31 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="22"/>
+      <c r="K28" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="L28" s="75" t="s">
+      <c r="M28" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M28" s="24" t="str">
+      <c r="N28" s="24" t="str">
         <f t="shared" si="2"/>
         <v>50-150 m
 AND
 150-500 m</v>
       </c>
-      <c r="N28" s="76" t="s">
+      <c r="O28" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="O28" s="93"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="11"/>
-      <c r="V28" s="12"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="12"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="11"/>
+      <c r="W28" s="12"/>
+      <c r="AB28" s="13"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
@@ -2969,8 +3019,9 @@
       <c r="AR28" s="12"/>
       <c r="AS28" s="12"/>
       <c r="AT28" s="12"/>
-    </row>
-    <row r="29" spans="2:46" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="AU28" s="12"/>
+    </row>
+    <row r="29" spans="2:47" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" s="39"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2984,30 +3035,31 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="22"/>
+      <c r="K29" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="L29" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="L29" s="75" t="s">
+      <c r="M29" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="M29" s="24" t="str">
+      <c r="N29" s="24" t="str">
         <f t="shared" si="2"/>
         <v>50-150 m
 AND
 150-500 m</v>
       </c>
-      <c r="N29" s="78" t="s">
+      <c r="O29" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="O29" s="93"/>
-      <c r="P29" s="23"/>
-      <c r="R29" s="11"/>
-      <c r="AA29" s="13"/>
-    </row>
-    <row r="30" spans="2:46" s="51" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P29" s="103"/>
+      <c r="Q29" s="23"/>
+      <c r="S29" s="11"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="2:47" s="51" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="26"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -3021,153 +3073,201 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="64"/>
+      <c r="K30" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="82" t="s">
+      <c r="L30" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="M30" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="M30" s="80" t="s">
+      <c r="N30" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="N30" s="83" t="s">
+      <c r="O30" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="30"/>
-      <c r="R30" s="52"/>
-      <c r="AA30" s="54"/>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="P30" s="104"/>
+      <c r="Q30" s="30"/>
+      <c r="S30" s="52"/>
+      <c r="AB30" s="54"/>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="I31" s="22"/>
-      <c r="K31" s="8" t="s">
+      <c r="J31" s="22"/>
+      <c r="L31" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.35">
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>211</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="8" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B33" s="8"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="22"/>
+      <c r="K33" s="12"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34" s="8"/>
       <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="22"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35" s="8"/>
       <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="22"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B36" s="8"/>
+      <c r="K36" s="12"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B37" s="8"/>
+      <c r="K37" s="12"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38" s="8"/>
+      <c r="K38" s="12"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B66" s="8"/>
+      <c r="R66" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="P27:P30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
